--- a/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_フォーマット.xlsx
+++ b/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_フォーマット.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Desktop/development-PGcourse-DroneInventorySystem/docs/試験項目書兼結果報告書/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota\git\development-PGcourse-DroneInventorySystem\docs\試験項目書兼結果報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587CF493-E766-8749-A1C6-7C59690800DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52664E0-4F4E-4218-A386-6CC1A2EB6947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="試験項目" sheetId="13" r:id="rId1"/>
     <sheet name="エビデンス" sheetId="12" r:id="rId2"/>
-    <sheet name="→不具合報告→" sheetId="15" r:id="rId3"/>
+    <sheet name="不具合報告→" sheetId="15" r:id="rId3"/>
     <sheet name="不具合報告" sheetId="1" r:id="rId4"/>
     <sheet name="障害ID_001" sheetId="14" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">エビデンス!$A$1:$AX$176</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">試験項目!$A$1:$Y$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">試験項目!$A$1:$U$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">不具合報告!$A$1:$K$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="59">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -130,16 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>試験内容</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>試験条件</t>
     <rPh sb="0" eb="2">
       <t>シケン</t>
@@ -171,16 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>試験手順</t>
-    <rPh sb="0" eb="2">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>判定
 １回目</t>
     <rPh sb="0" eb="2">
@@ -221,37 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①springbootを実行
-②ブラウザより　http://localhost:8080/login　を実行</t>
-    <rPh sb="12" eb="14">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①ログイン画面からログイン成功
-②メニューバーより「在庫センター情報」を押下</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ザイコ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設計書の画面イメージ通りに色、ボタン、データが表示されていること。</t>
     <rPh sb="0" eb="3">
       <t>セッケイショ</t>
@@ -267,87 +216,6 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期表示（画面）</t>
-    <rPh sb="0" eb="4">
-      <t>ショキヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面表示時のレイアウト・表示内容を確認</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ヒョウジジ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ヒョウジナイヨウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期表示（ログ）</t>
-    <rPh sb="0" eb="4">
-      <t>ショキヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面表示時のログ出力内容を確認</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ヒョウジジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初期表示（データ）</t>
-    <rPh sb="0" eb="4">
-      <t>ショキヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面表示時のデータ出力内容を確認</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -387,41 +255,6 @@
     </rPh>
     <rPh sb="83" eb="85">
       <t>ショウジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【データ準備】
-稼働状況ステータス、削除フラグが「0」「1」が混在するレコードを用意
-【試験手順】
-①springbootを実行
-②ブラウザより　http://localhost:8080/login　を実行</t>
-    <rPh sb="4" eb="6">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>カドウジョウキョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コンザイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヨウイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -740,12 +573,121 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>在庫センター情報画面初期表示</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ショキヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト・表示内容を確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ヒョウジナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ出力内容を確認</t>
+    <rPh sb="2" eb="4">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ出力内容を確認</t>
+    <rPh sb="3" eb="5">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試験観点</t>
+    <rPh sb="0" eb="2">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①ログイン画面からログイン成功
+②メニューバーより「在庫センター情報」を押下
+＜試験データ＞
+在庫センター情報テーブルに下記条件を登録
+「稼働状況ステータス」、「削除フラグ」の値「0」、「1」が混在するレコードを用意</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シケン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -856,7 +798,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1022,13 +964,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,14 +1117,107 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1182,63 +1228,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,18 +1240,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1268,6 +1248,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2046,16 +2035,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2070,8 +2059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="688521" y="3107871"/>
-          <a:ext cx="12065454" cy="1559379"/>
+          <a:off x="9591675" y="3933826"/>
+          <a:ext cx="942975" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2114,14 +2103,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>176893</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2136,8 +2125,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2443843" y="7565572"/>
-          <a:ext cx="7147832" cy="3192235"/>
+          <a:off x="2377168" y="9382125"/>
+          <a:ext cx="6938282" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2171,6 +2160,188 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 折線 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8770C83-679C-790B-2971-849E6E309D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11144250" y="2695575"/>
+          <a:ext cx="2152650" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除フラグ＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のレコード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 折線 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF679A3-8971-4D67-B425-CB269BAA2041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="8210550"/>
+          <a:ext cx="2152650" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>削除フラグ＝</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のレコードが表示されている</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2476,620 +2647,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00E766C-EA4C-E14A-AA5A-CA0A9C83E992}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:G4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16" width="3.7109375" style="1"/>
-    <col min="17" max="17" width="7.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" style="1"/>
-    <col min="21" max="21" width="5.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="3.7109375" style="1"/>
+    <col min="5" max="5" width="32.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16" width="3.6640625" style="1"/>
+    <col min="17" max="17" width="7.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.44140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" style="1" customWidth="1"/>
+    <col min="25" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="57" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="58" t="s">
+      <c r="H1" s="46"/>
+      <c r="I1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="59" t="s">
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="45"/>
-    </row>
-    <row r="2" spans="1:25" ht="20" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="57" t="s">
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-    </row>
-    <row r="3" spans="1:25" ht="20" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="57" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="48"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="60" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="49">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="46">
-        <v>45700</v>
-      </c>
-      <c r="X3" s="47"/>
-    </row>
-    <row r="4" spans="1:25" ht="20" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="60" t="s">
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="50"/>
+    </row>
+    <row r="5" spans="1:19" s="7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="72" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="73"/>
+      <c r="O5" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-    </row>
-    <row r="5" spans="1:25" s="7" customFormat="1" ht="48" customHeight="1">
-      <c r="A5" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65" t="s">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="64"/>
-      <c r="U5" s="65" t="s">
+      <c r="R5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="65"/>
-      <c r="W5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="7" customFormat="1" ht="69" customHeight="1">
-      <c r="A6" s="8">
+      <c r="S5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="60">
         <f>ROW(A6)-5</f>
         <v>1</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
+      <c r="C6" s="57" t="s">
+        <v>53</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="70"/>
+      <c r="O6" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="T6" s="62"/>
-      <c r="U6" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="67"/>
-      <c r="W6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="7" customFormat="1" ht="93.75" customHeight="1">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
+      <c r="R6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="7" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="61"/>
       <c r="B7" s="8">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="58"/>
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="N7" s="70"/>
+      <c r="O7" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" s="62"/>
-      <c r="U7" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="V7" s="67"/>
-      <c r="W7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="7" customFormat="1" ht="143.25" customHeight="1">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="8" spans="1:19" s="7" customFormat="1" ht="143.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="62"/>
       <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="C8" s="59"/>
       <c r="D8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="70"/>
+      <c r="O8" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="62"/>
-      <c r="U8" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="V8" s="67"/>
-      <c r="W8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="7" customFormat="1" ht="16">
+      <c r="P8" s="71"/>
+      <c r="Q8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="8"/>
-    </row>
-    <row r="10" spans="1:25" s="7" customFormat="1" ht="16">
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="8"/>
-    </row>
-    <row r="11" spans="1:25" s="7" customFormat="1" ht="16">
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="8"/>
-    </row>
-    <row r="12" spans="1:25" s="7" customFormat="1" ht="16">
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="8"/>
-    </row>
-    <row r="13" spans="1:25" s="7" customFormat="1" ht="16">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="8"/>
-    </row>
-    <row r="14" spans="1:25" s="7" customFormat="1" ht="16">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="8"/>
-    </row>
-    <row r="15" spans="1:25" s="7" customFormat="1" ht="16">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="8"/>
-    </row>
-    <row r="16" spans="1:25" s="7" customFormat="1" ht="20" customHeight="1"/>
-    <row r="17" s="7" customFormat="1" ht="20" customHeight="1"/>
-    <row r="18" s="7" customFormat="1" ht="20" customHeight="1"/>
-    <row r="19" s="7" customFormat="1" ht="20" customHeight="1"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:19" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:19" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:19" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
+  <mergeCells count="37">
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="F5:L5"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="P1:R2"/>
+    <mergeCell ref="P3:R4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S9:T9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="F5:L5"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W1:X2"/>
-    <mergeCell ref="W3:X4"/>
-    <mergeCell ref="A1:G4"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="T1:V2"/>
-    <mergeCell ref="T3:V4"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:S3"/>
-    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3105,201 +3085,201 @@
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="20" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="58" t="s">
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="59" t="s">
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="70" t="str">
-        <f>試験項目!W1</f>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="83" t="str">
+        <f>試験項目!S1</f>
         <v>佐藤</v>
       </c>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
-      <c r="AH1" s="70"/>
-    </row>
-    <row r="2" spans="1:49" ht="20" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="57" t="s">
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
+    </row>
+    <row r="2" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="58" t="s">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="58"/>
-      <c r="V2" s="58"/>
-      <c r="W2" s="58"/>
-      <c r="X2" s="58"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="58"/>
-      <c r="AA2" s="58"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
-      <c r="AG2" s="70"/>
-      <c r="AH2" s="70"/>
-    </row>
-    <row r="3" spans="1:49" ht="20" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="57" t="s">
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+    </row>
+    <row r="3" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="70" t="str">
-        <f>試験項目!M3</f>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="82"/>
+      <c r="T3" s="83" t="str">
+        <f>試験項目!I3</f>
         <v>在庫センター情報</v>
       </c>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="59" t="s">
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="83"/>
+      <c r="AB3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="71">
-        <f>試験項目!W3</f>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="84">
+        <f>試験項目!S3</f>
         <v>45700</v>
       </c>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-    </row>
-    <row r="4" spans="1:49" ht="20" customHeight="1">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="57" t="s">
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="85"/>
+      <c r="AH3" s="85"/>
+    </row>
+    <row r="4" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="70" t="str">
-        <f>試験項目!M4</f>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="83" t="str">
+        <f>試験項目!I4</f>
         <v>IT01F004</v>
       </c>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-    </row>
-    <row r="5" spans="1:49" ht="20" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="U4" s="83"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="83"/>
+      <c r="X4" s="83"/>
+      <c r="Y4" s="83"/>
+      <c r="Z4" s="83"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+    </row>
+    <row r="5" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:49" ht="20" customHeight="1">
+    <row r="6" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -3350,7 +3330,7 @@
       <c r="AV6" s="16"/>
       <c r="AW6" s="18"/>
     </row>
-    <row r="7" spans="1:49" ht="20" customHeight="1">
+    <row r="7" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -3401,7 +3381,7 @@
       <c r="AV7" s="20"/>
       <c r="AW7" s="22"/>
     </row>
-    <row r="8" spans="1:49" ht="20" customHeight="1">
+    <row r="8" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -3452,7 +3432,7 @@
       <c r="AV8" s="20"/>
       <c r="AW8" s="22"/>
     </row>
-    <row r="9" spans="1:49" ht="20" customHeight="1">
+    <row r="9" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -3503,7 +3483,7 @@
       <c r="AV9" s="20"/>
       <c r="AW9" s="22"/>
     </row>
-    <row r="10" spans="1:49" ht="20" customHeight="1">
+    <row r="10" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -3554,7 +3534,7 @@
       <c r="AV10" s="20"/>
       <c r="AW10" s="22"/>
     </row>
-    <row r="11" spans="1:49" ht="20" customHeight="1">
+    <row r="11" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3605,7 +3585,7 @@
       <c r="AV11" s="20"/>
       <c r="AW11" s="22"/>
     </row>
-    <row r="12" spans="1:49" ht="20" customHeight="1">
+    <row r="12" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -3656,7 +3636,7 @@
       <c r="AV12" s="20"/>
       <c r="AW12" s="22"/>
     </row>
-    <row r="13" spans="1:49" ht="20" customHeight="1">
+    <row r="13" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -3707,7 +3687,7 @@
       <c r="AV13" s="20"/>
       <c r="AW13" s="22"/>
     </row>
-    <row r="14" spans="1:49" ht="20" customHeight="1">
+    <row r="14" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -3758,7 +3738,7 @@
       <c r="AV14" s="20"/>
       <c r="AW14" s="22"/>
     </row>
-    <row r="15" spans="1:49" ht="20" customHeight="1">
+    <row r="15" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -3809,7 +3789,7 @@
       <c r="AV15" s="20"/>
       <c r="AW15" s="22"/>
     </row>
-    <row r="16" spans="1:49" ht="20" customHeight="1">
+    <row r="16" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -3860,7 +3840,7 @@
       <c r="AV16" s="20"/>
       <c r="AW16" s="22"/>
     </row>
-    <row r="17" spans="1:49" ht="20" customHeight="1">
+    <row r="17" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -3911,7 +3891,7 @@
       <c r="AV17" s="20"/>
       <c r="AW17" s="22"/>
     </row>
-    <row r="18" spans="1:49" ht="20" customHeight="1">
+    <row r="18" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3962,7 +3942,7 @@
       <c r="AV18" s="20"/>
       <c r="AW18" s="22"/>
     </row>
-    <row r="19" spans="1:49" ht="20" customHeight="1">
+    <row r="19" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -4013,7 +3993,7 @@
       <c r="AV19" s="20"/>
       <c r="AW19" s="22"/>
     </row>
-    <row r="20" spans="1:49" ht="20" customHeight="1">
+    <row r="20" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -4064,7 +4044,7 @@
       <c r="AV20" s="20"/>
       <c r="AW20" s="22"/>
     </row>
-    <row r="21" spans="1:49" ht="20" customHeight="1">
+    <row r="21" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -4115,7 +4095,7 @@
       <c r="AV21" s="20"/>
       <c r="AW21" s="22"/>
     </row>
-    <row r="22" spans="1:49" ht="20" customHeight="1">
+    <row r="22" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -4166,7 +4146,7 @@
       <c r="AV22" s="20"/>
       <c r="AW22" s="22"/>
     </row>
-    <row r="23" spans="1:49" ht="20" customHeight="1">
+    <row r="23" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -4217,7 +4197,7 @@
       <c r="AV23" s="20"/>
       <c r="AW23" s="22"/>
     </row>
-    <row r="24" spans="1:49" ht="20" customHeight="1">
+    <row r="24" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -4268,7 +4248,7 @@
       <c r="AV24" s="20"/>
       <c r="AW24" s="22"/>
     </row>
-    <row r="25" spans="1:49" ht="20" customHeight="1">
+    <row r="25" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -4319,7 +4299,7 @@
       <c r="AV25" s="20"/>
       <c r="AW25" s="22"/>
     </row>
-    <row r="26" spans="1:49" ht="20" customHeight="1">
+    <row r="26" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -4370,7 +4350,7 @@
       <c r="AV26" s="20"/>
       <c r="AW26" s="22"/>
     </row>
-    <row r="27" spans="1:49" ht="20" customHeight="1">
+    <row r="27" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -4421,7 +4401,7 @@
       <c r="AV27" s="20"/>
       <c r="AW27" s="22"/>
     </row>
-    <row r="28" spans="1:49" ht="20" customHeight="1">
+    <row r="28" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -4472,7 +4452,7 @@
       <c r="AV28" s="20"/>
       <c r="AW28" s="22"/>
     </row>
-    <row r="29" spans="1:49" ht="20" customHeight="1">
+    <row r="29" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -4523,7 +4503,7 @@
       <c r="AV29" s="20"/>
       <c r="AW29" s="22"/>
     </row>
-    <row r="30" spans="1:49" ht="20" customHeight="1">
+    <row r="30" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -4574,7 +4554,7 @@
       <c r="AV30" s="20"/>
       <c r="AW30" s="22"/>
     </row>
-    <row r="31" spans="1:49" ht="20" customHeight="1">
+    <row r="31" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -4625,7 +4605,7 @@
       <c r="AV31" s="20"/>
       <c r="AW31" s="22"/>
     </row>
-    <row r="32" spans="1:49" ht="20" customHeight="1">
+    <row r="32" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -4676,7 +4656,7 @@
       <c r="AV32" s="20"/>
       <c r="AW32" s="22"/>
     </row>
-    <row r="33" spans="1:49" ht="20" customHeight="1">
+    <row r="33" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -4727,7 +4707,7 @@
       <c r="AV33" s="20"/>
       <c r="AW33" s="22"/>
     </row>
-    <row r="34" spans="1:49" ht="20" customHeight="1">
+    <row r="34" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -4778,7 +4758,7 @@
       <c r="AV34" s="20"/>
       <c r="AW34" s="22"/>
     </row>
-    <row r="35" spans="1:49" ht="20" customHeight="1">
+    <row r="35" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -4829,7 +4809,7 @@
       <c r="AV35" s="20"/>
       <c r="AW35" s="22"/>
     </row>
-    <row r="36" spans="1:49" ht="20" customHeight="1">
+    <row r="36" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -4880,7 +4860,7 @@
       <c r="AV36" s="20"/>
       <c r="AW36" s="22"/>
     </row>
-    <row r="37" spans="1:49" ht="20" customHeight="1">
+    <row r="37" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -4931,7 +4911,7 @@
       <c r="AV37" s="20"/>
       <c r="AW37" s="22"/>
     </row>
-    <row r="38" spans="1:49" ht="20" customHeight="1">
+    <row r="38" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -4982,7 +4962,7 @@
       <c r="AV38" s="20"/>
       <c r="AW38" s="22"/>
     </row>
-    <row r="39" spans="1:49" ht="20" customHeight="1">
+    <row r="39" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="19"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -5033,7 +5013,7 @@
       <c r="AV39" s="20"/>
       <c r="AW39" s="22"/>
     </row>
-    <row r="40" spans="1:49" ht="20" customHeight="1">
+    <row r="40" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -5084,7 +5064,7 @@
       <c r="AV40" s="20"/>
       <c r="AW40" s="22"/>
     </row>
-    <row r="41" spans="1:49" ht="20" customHeight="1">
+    <row r="41" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="19"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -5135,7 +5115,7 @@
       <c r="AV41" s="20"/>
       <c r="AW41" s="22"/>
     </row>
-    <row r="42" spans="1:49" ht="20" customHeight="1">
+    <row r="42" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="19"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -5186,7 +5166,7 @@
       <c r="AV42" s="20"/>
       <c r="AW42" s="22"/>
     </row>
-    <row r="43" spans="1:49" ht="20" customHeight="1">
+    <row r="43" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -5237,7 +5217,7 @@
       <c r="AV43" s="20"/>
       <c r="AW43" s="22"/>
     </row>
-    <row r="44" spans="1:49" ht="20" customHeight="1">
+    <row r="44" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="19"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -5288,7 +5268,7 @@
       <c r="AV44" s="20"/>
       <c r="AW44" s="22"/>
     </row>
-    <row r="45" spans="1:49" ht="20" customHeight="1">
+    <row r="45" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -5339,7 +5319,7 @@
       <c r="AV45" s="20"/>
       <c r="AW45" s="22"/>
     </row>
-    <row r="46" spans="1:49" ht="20" customHeight="1">
+    <row r="46" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="19"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -5390,7 +5370,7 @@
       <c r="AV46" s="20"/>
       <c r="AW46" s="22"/>
     </row>
-    <row r="47" spans="1:49" ht="20" customHeight="1">
+    <row r="47" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="19"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -5441,7 +5421,7 @@
       <c r="AV47" s="20"/>
       <c r="AW47" s="22"/>
     </row>
-    <row r="48" spans="1:49" ht="20" customHeight="1">
+    <row r="48" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="19"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -5492,7 +5472,7 @@
       <c r="AV48" s="20"/>
       <c r="AW48" s="22"/>
     </row>
-    <row r="49" spans="1:49" ht="20" customHeight="1">
+    <row r="49" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -5543,7 +5523,7 @@
       <c r="AV49" s="20"/>
       <c r="AW49" s="22"/>
     </row>
-    <row r="50" spans="1:49" ht="20" customHeight="1">
+    <row r="50" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -5594,7 +5574,7 @@
       <c r="AV50" s="20"/>
       <c r="AW50" s="22"/>
     </row>
-    <row r="51" spans="1:49" ht="20" customHeight="1">
+    <row r="51" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="19"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -5645,7 +5625,7 @@
       <c r="AV51" s="20"/>
       <c r="AW51" s="22"/>
     </row>
-    <row r="52" spans="1:49" ht="20" customHeight="1">
+    <row r="52" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="19"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -5696,7 +5676,7 @@
       <c r="AV52" s="20"/>
       <c r="AW52" s="22"/>
     </row>
-    <row r="53" spans="1:49" ht="20" customHeight="1">
+    <row r="53" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="19"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -5747,7 +5727,7 @@
       <c r="AV53" s="20"/>
       <c r="AW53" s="22"/>
     </row>
-    <row r="54" spans="1:49" ht="20" customHeight="1">
+    <row r="54" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="19"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -5798,7 +5778,7 @@
       <c r="AV54" s="20"/>
       <c r="AW54" s="22"/>
     </row>
-    <row r="55" spans="1:49" ht="20" customHeight="1">
+    <row r="55" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -5849,7 +5829,7 @@
       <c r="AV55" s="20"/>
       <c r="AW55" s="22"/>
     </row>
-    <row r="56" spans="1:49" ht="20" customHeight="1">
+    <row r="56" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -5900,7 +5880,7 @@
       <c r="AV56" s="20"/>
       <c r="AW56" s="22"/>
     </row>
-    <row r="57" spans="1:49" ht="20" customHeight="1">
+    <row r="57" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="19"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -5951,7 +5931,7 @@
       <c r="AV57" s="20"/>
       <c r="AW57" s="22"/>
     </row>
-    <row r="58" spans="1:49" ht="20" customHeight="1">
+    <row r="58" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="19"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -6002,7 +5982,7 @@
       <c r="AV58" s="20"/>
       <c r="AW58" s="22"/>
     </row>
-    <row r="59" spans="1:49" ht="20" customHeight="1">
+    <row r="59" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -6053,7 +6033,7 @@
       <c r="AV59" s="20"/>
       <c r="AW59" s="22"/>
     </row>
-    <row r="60" spans="1:49" ht="20" customHeight="1">
+    <row r="60" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="19"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -6104,7 +6084,7 @@
       <c r="AV60" s="20"/>
       <c r="AW60" s="22"/>
     </row>
-    <row r="61" spans="1:49" ht="20" customHeight="1">
+    <row r="61" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="19"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -6155,7 +6135,7 @@
       <c r="AV61" s="20"/>
       <c r="AW61" s="22"/>
     </row>
-    <row r="62" spans="1:49" ht="20" customHeight="1">
+    <row r="62" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="19"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -6206,7 +6186,7 @@
       <c r="AV62" s="20"/>
       <c r="AW62" s="22"/>
     </row>
-    <row r="63" spans="1:49" ht="20" customHeight="1">
+    <row r="63" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="19"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -6257,7 +6237,7 @@
       <c r="AV63" s="20"/>
       <c r="AW63" s="22"/>
     </row>
-    <row r="64" spans="1:49" ht="20" customHeight="1">
+    <row r="64" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="19"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -6308,7 +6288,7 @@
       <c r="AV64" s="20"/>
       <c r="AW64" s="22"/>
     </row>
-    <row r="65" spans="1:49" ht="20" customHeight="1">
+    <row r="65" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="19"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -6359,7 +6339,7 @@
       <c r="AV65" s="20"/>
       <c r="AW65" s="22"/>
     </row>
-    <row r="66" spans="1:49" ht="20" customHeight="1">
+    <row r="66" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="19"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -6410,7 +6390,7 @@
       <c r="AV66" s="20"/>
       <c r="AW66" s="22"/>
     </row>
-    <row r="67" spans="1:49" ht="20" customHeight="1">
+    <row r="67" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="19"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -6461,7 +6441,7 @@
       <c r="AV67" s="20"/>
       <c r="AW67" s="22"/>
     </row>
-    <row r="68" spans="1:49" ht="20" customHeight="1">
+    <row r="68" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="19"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -6512,7 +6492,7 @@
       <c r="AV68" s="20"/>
       <c r="AW68" s="22"/>
     </row>
-    <row r="69" spans="1:49" ht="20" customHeight="1">
+    <row r="69" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="19"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -6563,7 +6543,7 @@
       <c r="AV69" s="20"/>
       <c r="AW69" s="22"/>
     </row>
-    <row r="70" spans="1:49" ht="20" customHeight="1">
+    <row r="70" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="19"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -6614,7 +6594,7 @@
       <c r="AV70" s="20"/>
       <c r="AW70" s="22"/>
     </row>
-    <row r="71" spans="1:49" ht="20" customHeight="1">
+    <row r="71" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="19"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -6665,7 +6645,7 @@
       <c r="AV71" s="20"/>
       <c r="AW71" s="22"/>
     </row>
-    <row r="72" spans="1:49" ht="20" customHeight="1">
+    <row r="72" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="19"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -6716,7 +6696,7 @@
       <c r="AV72" s="20"/>
       <c r="AW72" s="22"/>
     </row>
-    <row r="73" spans="1:49" ht="20" customHeight="1">
+    <row r="73" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -6767,7 +6747,7 @@
       <c r="AV73" s="20"/>
       <c r="AW73" s="22"/>
     </row>
-    <row r="74" spans="1:49" ht="20" customHeight="1">
+    <row r="74" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -6818,7 +6798,7 @@
       <c r="AV74" s="20"/>
       <c r="AW74" s="22"/>
     </row>
-    <row r="75" spans="1:49" ht="20" customHeight="1">
+    <row r="75" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -6869,7 +6849,7 @@
       <c r="AV75" s="20"/>
       <c r="AW75" s="22"/>
     </row>
-    <row r="76" spans="1:49" ht="20" customHeight="1">
+    <row r="76" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -6920,7 +6900,7 @@
       <c r="AV76" s="20"/>
       <c r="AW76" s="22"/>
     </row>
-    <row r="77" spans="1:49" ht="20" customHeight="1">
+    <row r="77" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -6971,7 +6951,7 @@
       <c r="AV77" s="20"/>
       <c r="AW77" s="22"/>
     </row>
-    <row r="78" spans="1:49" ht="20" customHeight="1">
+    <row r="78" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -7022,7 +7002,7 @@
       <c r="AV78" s="20"/>
       <c r="AW78" s="22"/>
     </row>
-    <row r="79" spans="1:49" ht="20" customHeight="1">
+    <row r="79" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -7073,7 +7053,7 @@
       <c r="AV79" s="20"/>
       <c r="AW79" s="22"/>
     </row>
-    <row r="80" spans="1:49" ht="20" customHeight="1">
+    <row r="80" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -7124,7 +7104,7 @@
       <c r="AV80" s="20"/>
       <c r="AW80" s="22"/>
     </row>
-    <row r="81" spans="1:49" ht="20" customHeight="1">
+    <row r="81" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -7175,7 +7155,7 @@
       <c r="AV81" s="20"/>
       <c r="AW81" s="22"/>
     </row>
-    <row r="82" spans="1:49" ht="20" customHeight="1">
+    <row r="82" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -7226,17 +7206,17 @@
       <c r="AV82" s="20"/>
       <c r="AW82" s="22"/>
     </row>
-    <row r="83" spans="1:49" ht="20" customHeight="1">
-      <c r="A83" s="73" t="s">
+    <row r="83" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="76"/>
+      <c r="F83" s="76"/>
       <c r="G83" s="28"/>
       <c r="H83" s="28"/>
       <c r="I83" s="28"/>
@@ -7281,7 +7261,7 @@
       <c r="AV83" s="29"/>
       <c r="AW83" s="30"/>
     </row>
-    <row r="84" spans="1:49" ht="20" customHeight="1">
+    <row r="84" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="19"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -7332,7 +7312,7 @@
       <c r="AV84" s="20"/>
       <c r="AW84" s="22"/>
     </row>
-    <row r="85" spans="1:49" ht="20" customHeight="1">
+    <row r="85" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="19"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -7383,7 +7363,7 @@
       <c r="AV85" s="20"/>
       <c r="AW85" s="22"/>
     </row>
-    <row r="86" spans="1:49" ht="20" customHeight="1">
+    <row r="86" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="19"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -7434,7 +7414,7 @@
       <c r="AV86" s="20"/>
       <c r="AW86" s="22"/>
     </row>
-    <row r="87" spans="1:49" ht="20" customHeight="1">
+    <row r="87" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="19"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -7485,7 +7465,7 @@
       <c r="AV87" s="20"/>
       <c r="AW87" s="22"/>
     </row>
-    <row r="88" spans="1:49" ht="20" customHeight="1">
+    <row r="88" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="19"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -7536,7 +7516,7 @@
       <c r="AV88" s="20"/>
       <c r="AW88" s="22"/>
     </row>
-    <row r="89" spans="1:49" ht="20" customHeight="1">
+    <row r="89" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="19"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -7587,7 +7567,7 @@
       <c r="AV89" s="20"/>
       <c r="AW89" s="22"/>
     </row>
-    <row r="90" spans="1:49" ht="20" customHeight="1">
+    <row r="90" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="19"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -7638,17 +7618,17 @@
       <c r="AV90" s="20"/>
       <c r="AW90" s="22"/>
     </row>
-    <row r="91" spans="1:49" ht="20" customHeight="1">
-      <c r="A91" s="73" t="s">
+    <row r="91" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B91" s="73"/>
-      <c r="C91" s="73"/>
-      <c r="D91" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="E91" s="74"/>
-      <c r="F91" s="74"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="76"/>
+      <c r="F91" s="76"/>
       <c r="G91" s="28"/>
       <c r="H91" s="28"/>
       <c r="I91" s="28"/>
@@ -7693,7 +7673,7 @@
       <c r="AV91" s="29"/>
       <c r="AW91" s="30"/>
     </row>
-    <row r="92" spans="1:49" ht="20" customHeight="1">
+    <row r="92" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="19"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -7744,345 +7724,345 @@
       <c r="AV92" s="20"/>
       <c r="AW92" s="22"/>
     </row>
-    <row r="93" spans="1:49" ht="20" customHeight="1">
+    <row r="93" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="23"/>
       <c r="B93" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AW93" s="24"/>
     </row>
-    <row r="94" spans="1:49" ht="20" customHeight="1">
+    <row r="94" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="23"/>
       <c r="AW94" s="24"/>
     </row>
-    <row r="95" spans="1:49" ht="20" customHeight="1">
+    <row r="95" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="23"/>
       <c r="AW95" s="24"/>
     </row>
-    <row r="96" spans="1:49" ht="20" customHeight="1">
+    <row r="96" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="23"/>
       <c r="AW96" s="24"/>
     </row>
-    <row r="97" spans="1:49" ht="20" customHeight="1">
+    <row r="97" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="23"/>
       <c r="AW97" s="24"/>
     </row>
-    <row r="98" spans="1:49" ht="20" customHeight="1">
+    <row r="98" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="23"/>
       <c r="AW98" s="24"/>
     </row>
-    <row r="99" spans="1:49" ht="20" customHeight="1">
+    <row r="99" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="23"/>
       <c r="AW99" s="24"/>
     </row>
-    <row r="100" spans="1:49" ht="20" customHeight="1">
+    <row r="100" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="23"/>
       <c r="AW100" s="24"/>
     </row>
-    <row r="101" spans="1:49" ht="20" customHeight="1">
+    <row r="101" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="23"/>
       <c r="AW101" s="24"/>
     </row>
-    <row r="102" spans="1:49" ht="20" customHeight="1">
+    <row r="102" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="23"/>
       <c r="AW102" s="24"/>
     </row>
-    <row r="103" spans="1:49" ht="20" customHeight="1">
+    <row r="103" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="23"/>
       <c r="AW103" s="24"/>
     </row>
-    <row r="104" spans="1:49" ht="20" customHeight="1">
+    <row r="104" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="23"/>
       <c r="AW104" s="24"/>
     </row>
-    <row r="105" spans="1:49" ht="20" customHeight="1">
+    <row r="105" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="23"/>
       <c r="AW105" s="24"/>
     </row>
-    <row r="106" spans="1:49" ht="20" customHeight="1">
+    <row r="106" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="23"/>
       <c r="AW106" s="24"/>
     </row>
-    <row r="107" spans="1:49" ht="20" customHeight="1">
+    <row r="107" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="23"/>
       <c r="AW107" s="24"/>
     </row>
-    <row r="108" spans="1:49" ht="20" customHeight="1">
+    <row r="108" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="23"/>
       <c r="AW108" s="24"/>
     </row>
-    <row r="109" spans="1:49" ht="20" customHeight="1">
+    <row r="109" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="23"/>
       <c r="AW109" s="24"/>
     </row>
-    <row r="110" spans="1:49" ht="20" customHeight="1">
+    <row r="110" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="23"/>
       <c r="AW110" s="24"/>
     </row>
-    <row r="111" spans="1:49" ht="20" customHeight="1">
+    <row r="111" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="23"/>
       <c r="AW111" s="24"/>
     </row>
-    <row r="112" spans="1:49" ht="20" customHeight="1">
+    <row r="112" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="23"/>
       <c r="B112" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AW112" s="24"/>
     </row>
-    <row r="113" spans="1:49" ht="20" customHeight="1">
+    <row r="113" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="23"/>
       <c r="AW113" s="24"/>
     </row>
-    <row r="114" spans="1:49" ht="20" customHeight="1">
+    <row r="114" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="23"/>
       <c r="AW114" s="24"/>
     </row>
-    <row r="115" spans="1:49" ht="20" customHeight="1">
+    <row r="115" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="23"/>
       <c r="AW115" s="24"/>
     </row>
-    <row r="116" spans="1:49" ht="20" customHeight="1">
+    <row r="116" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="23"/>
       <c r="AW116" s="24"/>
     </row>
-    <row r="117" spans="1:49" ht="20" customHeight="1">
+    <row r="117" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="23"/>
       <c r="AW117" s="24"/>
     </row>
-    <row r="118" spans="1:49" ht="20" customHeight="1">
+    <row r="118" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="23"/>
       <c r="AW118" s="24"/>
     </row>
-    <row r="119" spans="1:49" ht="20" customHeight="1">
+    <row r="119" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="23"/>
       <c r="AW119" s="24"/>
     </row>
-    <row r="120" spans="1:49" ht="20" customHeight="1">
+    <row r="120" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="23"/>
       <c r="AW120" s="24"/>
     </row>
-    <row r="121" spans="1:49" ht="20" customHeight="1">
+    <row r="121" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="23"/>
       <c r="AW121" s="24"/>
     </row>
-    <row r="122" spans="1:49" ht="20" customHeight="1">
+    <row r="122" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="23"/>
       <c r="AW122" s="24"/>
     </row>
-    <row r="123" spans="1:49" ht="20" customHeight="1">
+    <row r="123" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="23"/>
       <c r="AW123" s="24"/>
     </row>
-    <row r="124" spans="1:49" ht="20" customHeight="1">
+    <row r="124" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="23"/>
       <c r="AW124" s="24"/>
     </row>
-    <row r="125" spans="1:49" ht="20" customHeight="1">
+    <row r="125" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="23"/>
       <c r="AW125" s="24"/>
     </row>
-    <row r="126" spans="1:49" ht="20" customHeight="1">
+    <row r="126" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="23"/>
       <c r="AW126" s="24"/>
     </row>
-    <row r="127" spans="1:49" ht="20" customHeight="1">
+    <row r="127" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="23"/>
       <c r="AW127" s="24"/>
     </row>
-    <row r="128" spans="1:49" ht="20" customHeight="1">
+    <row r="128" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="23"/>
       <c r="AW128" s="24"/>
     </row>
-    <row r="129" spans="1:49" ht="20" customHeight="1">
+    <row r="129" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="23"/>
       <c r="AW129" s="24"/>
     </row>
-    <row r="130" spans="1:49" ht="20" customHeight="1">
+    <row r="130" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="23"/>
       <c r="AW130" s="24"/>
     </row>
-    <row r="131" spans="1:49" ht="20" customHeight="1">
+    <row r="131" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="23"/>
       <c r="AW131" s="24"/>
     </row>
-    <row r="132" spans="1:49" ht="20" customHeight="1">
+    <row r="132" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="23"/>
       <c r="AW132" s="24"/>
     </row>
-    <row r="133" spans="1:49" ht="20" customHeight="1">
+    <row r="133" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="23"/>
       <c r="AW133" s="24"/>
     </row>
-    <row r="134" spans="1:49" ht="20" customHeight="1">
+    <row r="134" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="23"/>
       <c r="AW134" s="24"/>
     </row>
-    <row r="135" spans="1:49" ht="20" customHeight="1">
+    <row r="135" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="23"/>
       <c r="AW135" s="24"/>
     </row>
-    <row r="136" spans="1:49" ht="20" customHeight="1">
+    <row r="136" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="23"/>
       <c r="AW136" s="24"/>
     </row>
-    <row r="137" spans="1:49" ht="20" customHeight="1">
+    <row r="137" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="23"/>
       <c r="AW137" s="24"/>
     </row>
-    <row r="138" spans="1:49" ht="20" customHeight="1">
+    <row r="138" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="23"/>
       <c r="AW138" s="24"/>
     </row>
-    <row r="139" spans="1:49" ht="20" customHeight="1">
+    <row r="139" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="23"/>
       <c r="AW139" s="24"/>
     </row>
-    <row r="140" spans="1:49" ht="20" customHeight="1">
+    <row r="140" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="23"/>
       <c r="AW140" s="24"/>
     </row>
-    <row r="141" spans="1:49" ht="20" customHeight="1">
+    <row r="141" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="23"/>
       <c r="AW141" s="24"/>
     </row>
-    <row r="142" spans="1:49" ht="20" customHeight="1">
+    <row r="142" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="23"/>
       <c r="AW142" s="24"/>
     </row>
-    <row r="143" spans="1:49" ht="20" customHeight="1">
+    <row r="143" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="23"/>
       <c r="AW143" s="24"/>
     </row>
-    <row r="144" spans="1:49" ht="20" customHeight="1">
+    <row r="144" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="23"/>
       <c r="AW144" s="24"/>
     </row>
-    <row r="145" spans="1:49" ht="20" customHeight="1">
+    <row r="145" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="23"/>
       <c r="AW145" s="24"/>
     </row>
-    <row r="146" spans="1:49" ht="20" customHeight="1">
+    <row r="146" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="23"/>
       <c r="AW146" s="24"/>
     </row>
-    <row r="147" spans="1:49" ht="20" customHeight="1">
+    <row r="147" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="23"/>
       <c r="AW147" s="24"/>
     </row>
-    <row r="148" spans="1:49" ht="20" customHeight="1">
+    <row r="148" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="23"/>
       <c r="AW148" s="24"/>
     </row>
-    <row r="149" spans="1:49" ht="20" customHeight="1">
+    <row r="149" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="23"/>
       <c r="AW149" s="24"/>
     </row>
-    <row r="150" spans="1:49" ht="20" customHeight="1">
+    <row r="150" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="23"/>
       <c r="AW150" s="24"/>
     </row>
-    <row r="151" spans="1:49" ht="20" customHeight="1">
+    <row r="151" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="23"/>
       <c r="AW151" s="24"/>
     </row>
-    <row r="152" spans="1:49" ht="20" customHeight="1">
+    <row r="152" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="23"/>
       <c r="AW152" s="24"/>
     </row>
-    <row r="153" spans="1:49" ht="20" customHeight="1">
+    <row r="153" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="23"/>
       <c r="AW153" s="24"/>
     </row>
-    <row r="154" spans="1:49" ht="20" customHeight="1">
+    <row r="154" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="23"/>
       <c r="AW154" s="24"/>
     </row>
-    <row r="155" spans="1:49" ht="20" customHeight="1">
+    <row r="155" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="23"/>
       <c r="AW155" s="24"/>
     </row>
-    <row r="156" spans="1:49" ht="20" customHeight="1">
+    <row r="156" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="23"/>
       <c r="AW156" s="24"/>
     </row>
-    <row r="157" spans="1:49" ht="20" customHeight="1">
+    <row r="157" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="23"/>
       <c r="AW157" s="24"/>
     </row>
-    <row r="158" spans="1:49" ht="20" customHeight="1">
+    <row r="158" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="23"/>
       <c r="AW158" s="24"/>
     </row>
-    <row r="159" spans="1:49" ht="20" customHeight="1">
+    <row r="159" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="23"/>
       <c r="AW159" s="24"/>
     </row>
-    <row r="160" spans="1:49" ht="20" customHeight="1">
+    <row r="160" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="23"/>
       <c r="AW160" s="24"/>
     </row>
-    <row r="161" spans="1:49" ht="20" customHeight="1">
+    <row r="161" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="23"/>
       <c r="AW161" s="24"/>
     </row>
-    <row r="162" spans="1:49" ht="20" customHeight="1">
+    <row r="162" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="23"/>
       <c r="AW162" s="24"/>
     </row>
-    <row r="163" spans="1:49" ht="20" customHeight="1">
+    <row r="163" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="23"/>
       <c r="AW163" s="24"/>
     </row>
-    <row r="164" spans="1:49" ht="20" customHeight="1">
+    <row r="164" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="23"/>
       <c r="AW164" s="24"/>
     </row>
-    <row r="165" spans="1:49" ht="20" customHeight="1">
+    <row r="165" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="23"/>
       <c r="AW165" s="24"/>
     </row>
-    <row r="166" spans="1:49" ht="20" customHeight="1">
+    <row r="166" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="23"/>
       <c r="AW166" s="24"/>
     </row>
-    <row r="167" spans="1:49" ht="20" customHeight="1">
+    <row r="167" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="23"/>
       <c r="AW167" s="24"/>
     </row>
-    <row r="168" spans="1:49" ht="20" customHeight="1">
+    <row r="168" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="23"/>
       <c r="AW168" s="24"/>
     </row>
-    <row r="169" spans="1:49" ht="20" customHeight="1">
+    <row r="169" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="23"/>
       <c r="AW169" s="24"/>
     </row>
-    <row r="170" spans="1:49" ht="20" customHeight="1">
+    <row r="170" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="23"/>
       <c r="AW170" s="24"/>
     </row>
-    <row r="171" spans="1:49" ht="20" customHeight="1">
+    <row r="171" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="23"/>
       <c r="AW171" s="24"/>
     </row>
-    <row r="172" spans="1:49" ht="20" customHeight="1">
+    <row r="172" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="23"/>
       <c r="AW172" s="24"/>
     </row>
-    <row r="173" spans="1:49" ht="20" customHeight="1">
+    <row r="173" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="23"/>
       <c r="AW173" s="24"/>
     </row>
-    <row r="174" spans="1:49" ht="20" customHeight="1">
+    <row r="174" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="23"/>
       <c r="AW174" s="24"/>
     </row>
-    <row r="175" spans="1:49" ht="20" customHeight="1">
+    <row r="175" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="23"/>
       <c r="AW175" s="24"/>
     </row>
-    <row r="176" spans="1:49" ht="20" customHeight="1">
+    <row r="176" spans="1:49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="25"/>
       <c r="B176" s="26"/>
       <c r="C176" s="26"/>
@@ -8135,12 +8115,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A1:N4"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:AA1"/>
@@ -8154,6 +8128,12 @@
     <mergeCell ref="T3:AA3"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8174,7 +8154,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8189,156 +8169,168 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="3.7109375" style="1"/>
+    <col min="1" max="1" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
       <c r="E1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="70"/>
-    </row>
-    <row r="2" spans="1:17" ht="20" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="H1" s="83" t="str">
+        <f>試験項目!S1</f>
+        <v>佐藤</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="70"/>
-    </row>
-    <row r="3" spans="1:17" ht="20" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="83"/>
+    </row>
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="59" t="s">
+      <c r="F3" s="5" t="str">
+        <f>試験項目!I3</f>
+        <v>在庫センター情報</v>
+      </c>
+      <c r="G3" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="72"/>
-    </row>
-    <row r="4" spans="1:17" ht="20" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="H3" s="49">
+        <f>試験項目!S3</f>
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="72"/>
-    </row>
-    <row r="5" spans="1:17" ht="20" customHeight="1">
-      <c r="A5" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="77" t="s">
+      <c r="F4" s="5" t="str">
+        <f>試験項目!I4</f>
+        <v>IT01F004</v>
+      </c>
+      <c r="G4" s="91"/>
+      <c r="H4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="86" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="20" customHeight="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="78"/>
-    </row>
-    <row r="7" spans="1:17" ht="100.5" customHeight="1">
+      <c r="J5" s="86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="87"/>
+    </row>
+    <row r="7" spans="1:17" ht="100.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="33" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B7" s="32">
         <v>45700</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J7" s="34">
         <v>45700</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="43" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -8350,7 +8342,7 @@
       <c r="I8" s="42"/>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:17" s="43" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -8362,7 +8354,7 @@
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="1:17" s="43" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -8374,7 +8366,7 @@
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="1:17" s="43" customFormat="1" ht="20" customHeight="1">
+    <row r="11" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -8386,7 +8378,7 @@
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
     </row>
-    <row r="12" spans="1:17" s="43" customFormat="1" ht="20" customHeight="1">
+    <row r="12" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -8398,10 +8390,10 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:17" s="43" customFormat="1" ht="20" customHeight="1"/>
-    <row r="14" spans="1:17" s="43" customFormat="1" ht="20" customHeight="1"/>
-    <row r="15" spans="1:17" s="43" customFormat="1" ht="20" customHeight="1"/>
-    <row r="16" spans="1:17" s="43" customFormat="1" ht="20" customHeight="1">
+    <row r="13" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -8413,12 +8405,12 @@
       <c r="P16" s="44"/>
       <c r="Q16" s="44"/>
     </row>
-    <row r="17" s="43" customFormat="1" ht="20" customHeight="1"/>
-    <row r="18" s="43" customFormat="1" ht="20" customHeight="1"/>
-    <row r="19" s="43" customFormat="1" ht="20" customHeight="1"/>
-    <row r="20" s="43" customFormat="1" ht="20" customHeight="1"/>
-    <row r="21" s="43" customFormat="1" ht="20" customHeight="1"/>
-    <row r="22" s="43" customFormat="1" ht="20" customHeight="1"/>
+    <row r="17" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="18" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="20" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="21" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="22" s="43" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="J5:J6"/>
@@ -8449,12 +8441,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="41"/>
+    <col min="1" max="16384" width="3.6640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="35"/>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -8505,185 +8497,185 @@
       <c r="AV1" s="36"/>
       <c r="AW1" s="37"/>
     </row>
-    <row r="2" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="2" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="39"/>
       <c r="B2" s="38" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AW2" s="40"/>
     </row>
-    <row r="3" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="3" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="39"/>
       <c r="AW3" s="40"/>
     </row>
-    <row r="4" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="4" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="39"/>
       <c r="AW4" s="40"/>
     </row>
-    <row r="5" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="5" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="39"/>
       <c r="AW5" s="40"/>
     </row>
-    <row r="6" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="6" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="39"/>
       <c r="AW6" s="40"/>
     </row>
-    <row r="7" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="7" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="39"/>
       <c r="AW7" s="40"/>
     </row>
-    <row r="8" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="8" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="39"/>
       <c r="AW8" s="40"/>
     </row>
-    <row r="9" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="9" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="39"/>
       <c r="AW9" s="40"/>
     </row>
-    <row r="10" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="10" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="39"/>
       <c r="AW10" s="40"/>
     </row>
-    <row r="11" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="11" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="39"/>
       <c r="AW11" s="40"/>
     </row>
-    <row r="12" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="12" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="39"/>
       <c r="AW12" s="40"/>
     </row>
-    <row r="13" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="13" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="39"/>
       <c r="AW13" s="40"/>
     </row>
-    <row r="14" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="14" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="39"/>
       <c r="AW14" s="40"/>
     </row>
-    <row r="15" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="15" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="39"/>
       <c r="AW15" s="40"/>
     </row>
-    <row r="16" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="16" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="39"/>
       <c r="AW16" s="40"/>
     </row>
-    <row r="17" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="17" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="39"/>
       <c r="AW17" s="40"/>
     </row>
-    <row r="18" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="18" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="39"/>
       <c r="AW18" s="40"/>
     </row>
-    <row r="19" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="19" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="39"/>
       <c r="AW19" s="40"/>
     </row>
-    <row r="20" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="20" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="39"/>
       <c r="AW20" s="40"/>
     </row>
-    <row r="21" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="21" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="39"/>
       <c r="B21" s="38" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AW21" s="40"/>
     </row>
-    <row r="22" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="22" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="39"/>
       <c r="AW22" s="40"/>
     </row>
-    <row r="23" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="23" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="39"/>
       <c r="AW23" s="40"/>
     </row>
-    <row r="24" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="24" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="39"/>
       <c r="AW24" s="40"/>
     </row>
-    <row r="25" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="25" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="39"/>
       <c r="AW25" s="40"/>
     </row>
-    <row r="26" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="26" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="39"/>
       <c r="AW26" s="40"/>
     </row>
-    <row r="27" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="27" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="39"/>
       <c r="AW27" s="40"/>
     </row>
-    <row r="28" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="28" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="39"/>
       <c r="AW28" s="40"/>
     </row>
-    <row r="29" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="39"/>
       <c r="AW29" s="40"/>
     </row>
-    <row r="30" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="39"/>
       <c r="AW30" s="40"/>
     </row>
-    <row r="31" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="31" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="39"/>
       <c r="AW31" s="40"/>
     </row>
-    <row r="32" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="32" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="39"/>
       <c r="AW32" s="40"/>
     </row>
-    <row r="33" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="33" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="39"/>
       <c r="AW33" s="40"/>
     </row>
-    <row r="34" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="34" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="39"/>
       <c r="AW34" s="40"/>
     </row>
-    <row r="35" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="35" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="39"/>
       <c r="AW35" s="40"/>
     </row>
-    <row r="36" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="36" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="39"/>
       <c r="AW36" s="40"/>
     </row>
-    <row r="37" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="37" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="39"/>
       <c r="AW37" s="40"/>
     </row>
-    <row r="38" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="38" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="39"/>
       <c r="AW38" s="40"/>
     </row>
-    <row r="39" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="39" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="39"/>
       <c r="AW39" s="40"/>
     </row>
-    <row r="40" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="40" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="39"/>
       <c r="AW40" s="40"/>
     </row>
-    <row r="41" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="41" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="39"/>
       <c r="AW41" s="40"/>
     </row>
-    <row r="42" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="42" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="39"/>
       <c r="AW42" s="40"/>
     </row>
-    <row r="43" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="43" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="39"/>
       <c r="AW43" s="40"/>
     </row>
-    <row r="44" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="44" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="39"/>
       <c r="AW44" s="40"/>
     </row>
-    <row r="45" spans="1:49" s="38" customFormat="1" ht="20" customHeight="1">
+    <row r="45" spans="1:49" s="38" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="39"/>
       <c r="AW45" s="40"/>
     </row>
